--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9955495623437213</v>
+        <v>0.9951798856757821</v>
       </c>
       <c r="E2">
-        <v>0.9955495623437213</v>
+        <v>0.9951798856757821</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999993060255616</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9999993060255616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.001699292983541762</v>
+        <v>0.00061381034650537</v>
       </c>
       <c r="E4">
-        <v>0.001699292983541762</v>
+        <v>0.00061381034650537</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.360786595197496E-07</v>
+        <v>9.737410624520885E-06</v>
       </c>
       <c r="E5">
-        <v>1.360786595197496E-07</v>
+        <v>9.737410624520885E-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.02547686591959279</v>
+        <v>0.1727573487936249</v>
       </c>
       <c r="E6">
-        <v>0.02547686591959279</v>
+        <v>0.1727573487936249</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999999811</v>
+        <v>0.9999999999999873</v>
       </c>
       <c r="E7">
-        <v>1.887379141862766E-14</v>
+        <v>1.265654248072678E-14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999987772200744</v>
+        <v>0.9999999997397482</v>
       </c>
       <c r="E8">
-        <v>1.222779925647011E-06</v>
+        <v>2.602518200944814E-10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.996929937988022</v>
+        <v>0.9993778928338607</v>
       </c>
       <c r="E9">
-        <v>0.003070062011978014</v>
+        <v>0.0006221071661393074</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.99999999999893</v>
+        <v>0.9999999999999851</v>
       </c>
       <c r="E11">
-        <v>1.070032951133726E-12</v>
+        <v>1.48769885299771E-14</v>
       </c>
       <c r="F11">
-        <v>1.962616920471191</v>
+        <v>4.321595668792725</v>
       </c>
       <c r="G11">
         <v>0.8</v>
